--- a/_miscellaneous/project-progress.xlsx
+++ b/_miscellaneous/project-progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODES\PYTHON\_X_Scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODES\PYTHON\_X_Scraper\_miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55AF401-7200-4889-84EF-6ABF32223428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A308343-587E-4A14-A450-6263C18967B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,14 +118,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,22 +214,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +519,7 @@
   <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:T7"/>
+      <selection activeCell="G9" sqref="G9:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,10 +529,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -613,53 +605,53 @@
     </row>
     <row r="5" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="L5" s="13" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="L5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="Q5" s="9" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="Q5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
